--- a/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>queueName： userId + "_" + deviceId;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴宗煜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +247,10 @@
   </si>
   <si>
     <t>注册接口：注册时短消息验证，且一个用户分配一台交换机，根据登陆设备分配消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueName：userId + "_" + deviceId;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,18 +577,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,31 +634,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1081,364 +1081,353 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="15">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="14" t="s">
-        <v>29</v>
+      <c r="E12" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="A14" s="18">
         <v>4</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="14" t="s">
-        <v>29</v>
+      <c r="E14" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="A33" s="15">
         <v>5</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A14:A32"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E32"/>
-    <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A13"/>
@@ -1447,6 +1436,17 @@
     <mergeCell ref="B14:B32"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C14:C21"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E32"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A14:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="问题点" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>queueName：userId + "_" + deviceId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动动画结束后有白加黑现象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,33 +583,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,33 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1047,6 +1051,14 @@
       </c>
       <c r="C10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1091,76 +1103,76 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1169,237 +1181,237 @@
       <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="18">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="23"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="15">
+      <c r="A33" s="9">
         <v>5</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1408,26 +1420,29 @@
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="28"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="23"/>
+      <c r="E35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A14:A32"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A13"/>
@@ -1444,9 +1459,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A14:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>启动动画结束后有白加黑现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地数据更改，如何在其他用户本地同步更改（例如生日）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +590,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,15 +638,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,18 +648,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,6 +1063,11 @@
       </c>
       <c r="B12" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1106,73 +1115,73 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1181,237 +1190,237 @@
       <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27">
+      <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="22" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>5</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1420,37 +1429,26 @@
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="25"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A14:A32"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B14:B32"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C14:C21"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E12:E13"/>
@@ -1458,7 +1456,18 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B14:B32"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C14:C21"/>
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A14:A32"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>本地数据更改，如何在其他用户本地同步更改（例如生日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config路径使用表管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,67 +591,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,6 +1072,11 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1112,76 +1121,76 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+      <c r="A8" s="23">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1190,237 +1199,237 @@
       <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="A14" s="26">
         <v>4</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="26"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="26"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
+      <c r="A33" s="23">
         <v>5</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1429,26 +1438,38 @@
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A14:A32"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B14:B32"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E12:E13"/>
@@ -1456,18 +1477,6 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B14:B32"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A14:A32"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>config路径使用表管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截器加token验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,6 +1081,11 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/问题汇总及解决方案.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>拦截器加token验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注做出子表，针对每天不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,40 +599,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,25 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1086,6 +1090,11 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1130,76 +1139,76 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="23">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="23">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1208,237 +1217,237 @@
       <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="23">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="26">
+      <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="23">
+      <c r="A33" s="9">
         <v>5</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1447,38 +1456,26 @@
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A14:A32"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B14:B32"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="B33:B35"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E12:E13"/>
@@ -1486,6 +1483,18 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B14:B32"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A14:A32"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
